--- a/data/large/data5.xlsx
+++ b/data/large/data5.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H188"/>
+  <dimension ref="A1:H178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,17 +472,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>22_A_01,21_H_02</t>
+          <t>22_B_02</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>M_68</t>
+          <t>M_58</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MT_60</t>
+          <t>MT_40</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -495,7 +495,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -508,21 +508,21 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>23_B_01</t>
+          <t>22_B_02</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>M_30</t>
+          <t>L_58</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MT_09</t>
+          <t>MT_40</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -531,7 +531,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>ll,ml</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -544,21 +544,21 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>22_A_01,24_A_03</t>
+          <t>21_G_03</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>M_35</t>
+          <t>M_54</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MT_51</t>
+          <t>MT_14</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -567,7 +567,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -580,21 +580,21 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>22_A_02,21_A_01</t>
+          <t>21_G_00,21_H_03,23_G_00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>M_45</t>
+          <t>M_09</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MT_02</t>
+          <t>MT_52</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -603,7 +603,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>bc</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -616,21 +616,21 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>22_A_02,21_A_01</t>
+          <t>22_G_02</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>L_45</t>
+          <t>M_40</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MT_02</t>
+          <t>MT_62</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>ml</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -652,21 +652,21 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>24_H_01,22_A_02</t>
+          <t>21_G_02,22_G_04</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>P_09</t>
+          <t>P_07</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>PT_25</t>
+          <t>PT_10</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -688,25 +688,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>22_B_02</t>
+          <t>24_G_00</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>P_09</t>
+          <t>M_32</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>PT_28</t>
+          <t>MT_57</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -724,21 +724,21 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>23_H_02,21_A_02</t>
+          <t>24_G_00</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>M_46</t>
+          <t>L_32</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>MT_05</t>
+          <t>MT_57</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>ll,ml</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -760,30 +760,30 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>23_H_02,21_A_02</t>
+          <t>23_B_00</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>L_46</t>
+          <t>P_01</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MT_05</t>
+          <t>PT_07</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>ml</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -796,30 +796,30 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>23_A_02</t>
+          <t>24_G_00,22_G_04</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>M_65</t>
+          <t>P_06</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>MT_64</t>
+          <t>PT_28</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -832,30 +832,30 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>23_A_02</t>
+          <t>21_H_00,23_G_02</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>L_65</t>
+          <t>P_06</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>MT_64</t>
+          <t>PT_06</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>ll,ml</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -868,25 +868,25 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>21_B_01</t>
+          <t>22_H_00</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>M_35</t>
+          <t>P_04</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>MT_49</t>
+          <t>PT_18</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -904,21 +904,21 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>23_A_03</t>
+          <t>22_B_01,23_B_02</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>M_35</t>
+          <t>M_47</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>MT_44</t>
+          <t>MT_28</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -940,21 +940,21 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>22_B_01,21_A_02</t>
+          <t>22_G_02,24_G_00</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>M_23</t>
+          <t>M_12</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>MT_60</t>
+          <t>MT_22</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -976,21 +976,21 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>22_B_01,21_A_02</t>
+          <t>22_G_02,24_G_00</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>L_23</t>
+          <t>L_12</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>MT_60</t>
+          <t>MT_22</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1012,30 +1012,30 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>23_H_03</t>
+          <t>21_B_00,23_G_01,24_G_00</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>P_08</t>
+          <t>M_19</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>PT_26</t>
+          <t>MT_17</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>bc</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1048,21 +1048,21 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>23_B_03,24_A_03</t>
+          <t>21_G_02,21_H_03</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>M_57</t>
+          <t>M_45</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>MT_38</t>
+          <t>MT_13</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1084,21 +1084,21 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>23_B_03,24_A_03</t>
+          <t>23_H_00</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>L_57</t>
+          <t>M_63</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>MT_38</t>
+          <t>MT_25</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>ml</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1120,17 +1120,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>23_B_01,22_A_01</t>
+          <t>23_B_00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>M_34</t>
+          <t>P_09</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>MT_27</t>
+          <t>PT_08</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1138,12 +1138,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -1156,30 +1156,30 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>23_B_01,22_A_01</t>
+          <t>23_B_00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>L_34</t>
+          <t>P_09</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>MT_27</t>
+          <t>PT_29</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>ml</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -1192,21 +1192,21 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>24_B_01</t>
+          <t>24_B_00</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>M_23</t>
+          <t>M_30</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>MT_16</t>
+          <t>MT_51</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1228,21 +1228,21 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>21_B_02,22_B_02</t>
+          <t>24_B_00</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>M_45</t>
+          <t>L_30</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>MT_12</t>
+          <t>MT_51</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>ll,ml</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -1264,21 +1264,21 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>21_B_02,22_B_02</t>
+          <t>23_B_02</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>L_45</t>
+          <t>M_16</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>MT_12</t>
+          <t>MT_62</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>ml</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -1300,21 +1300,21 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>23_A_01</t>
+          <t>23_B_02</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>M_64</t>
+          <t>L_16</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>MT_20</t>
+          <t>MT_62</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>ll,ml</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -1336,30 +1336,30 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>23_A_01</t>
+          <t>21_G_03</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>L_64</t>
+          <t>P_04</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>MT_20</t>
+          <t>PT_14</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>ll,ml</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -1372,21 +1372,21 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>22_H_01,23_A_01</t>
+          <t>22_G_04</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>M_57</t>
+          <t>M_04</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>MT_49</t>
+          <t>MT_62</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -1408,21 +1408,21 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>23_A_03</t>
+          <t>22_G_04</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>M_46</t>
+          <t>L_04</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>MT_57</t>
+          <t>MT_62</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>ll,ml</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -1444,21 +1444,21 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>21_H_03,23_H_02,24_H_03</t>
+          <t>23_H_02</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>M_31</t>
+          <t>M_43</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>MT_39</t>
+          <t>MT_29</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>bc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -1480,21 +1480,21 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>23_B_02,24_H_02</t>
+          <t>22_B_00</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>M_23</t>
+          <t>M_22</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>MT_58</t>
+          <t>MT_66</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -1516,30 +1516,30 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>21_A_03</t>
+          <t>22_B_00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>P_03</t>
+          <t>L_22</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>PT_15</t>
+          <t>MT_66</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>ll,ml</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -1552,17 +1552,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>22_H_01</t>
+          <t>22_H_00</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>M_39</t>
+          <t>M_51</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>MT_31</t>
+          <t>MT_27</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1588,21 +1588,21 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>22_H_01</t>
+          <t>22_H_00</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>L_39</t>
+          <t>L_51</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>MT_31</t>
+          <t>MT_27</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1624,21 +1624,21 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>21_B_01,24_A_02</t>
+          <t>24_B_00</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>M_29</t>
+          <t>M_37</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>MT_44</t>
+          <t>MT_52</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -1660,21 +1660,21 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>21_B_01,24_A_02</t>
+          <t>24_B_00</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>L_29</t>
+          <t>L_37</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>MT_44</t>
+          <t>MT_52</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1683,7 +1683,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>ml</t>
+          <t>ll,ml</t>
         </is>
       </c>
       <c r="H35" t="n">
@@ -1696,30 +1696,30 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>23_A_01,24_B_01,22_B_01</t>
+          <t>21_H_03</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>M_45</t>
+          <t>P_05</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>MT_20</t>
+          <t>PT_22</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>bc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H36" t="n">
@@ -1732,21 +1732,21 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>22_B_02</t>
+          <t>21_G_00</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>M_21</t>
+          <t>M_65</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>MT_06</t>
+          <t>MT_40</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1773,16 +1773,16 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>M_40</t>
+          <t>M_24</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>MT_56</t>
+          <t>MT_66</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1809,16 +1809,16 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>L_40</t>
+          <t>L_24</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>MT_56</t>
+          <t>MT_66</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1840,21 +1840,21 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>22_B_01,24_A_03</t>
+          <t>23_B_01,23_H_01</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>M_36</t>
+          <t>M_67</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>MT_24</t>
+          <t>MT_42</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1876,17 +1876,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>24_A_03</t>
+          <t>22_G_02,21_G_01</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>P_08</t>
+          <t>M_24</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>PT_04</t>
+          <t>MT_69</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -1894,12 +1894,12 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -1912,21 +1912,21 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>22_H_02</t>
+          <t>22_G_02,21_G_01</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>M_50</t>
+          <t>L_24</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>MT_14</t>
+          <t>MT_69</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>ml</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -1948,21 +1948,21 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>23_A_02,22_B_01</t>
+          <t>23_H_03,22_B_02</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>M_59</t>
+          <t>M_23</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>MT_44</t>
+          <t>MT_60</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1984,21 +1984,21 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>21_A_01,24_H_01,24_A_01</t>
+          <t>23_H_03,22_B_02</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>M_61</t>
+          <t>L_23</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>MT_64</t>
+          <t>MT_60</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>bc</t>
+          <t>ml</t>
         </is>
       </c>
       <c r="H44" t="n">
@@ -2020,21 +2020,21 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>24_B_02</t>
+          <t>22_G_00</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>P_09</t>
+          <t>P_03</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>PT_07</t>
+          <t>PT_15</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2056,21 +2056,21 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>23_A_02,24_B_02</t>
+          <t>22_B_00,21_H_03</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>M_33</t>
+          <t>M_59</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>MT_07</t>
+          <t>MT_26</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2092,21 +2092,21 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>23_A_02,24_B_02</t>
+          <t>22_B_00,21_H_03</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>L_33</t>
+          <t>L_59</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>MT_07</t>
+          <t>MT_26</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2128,17 +2128,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>22_B_01,21_H_01</t>
+          <t>23_G_00,21_G_02</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>M_50</t>
+          <t>P_07</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>MT_51</t>
+          <t>PT_25</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2164,21 +2164,21 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>23_H_01</t>
+          <t>21_G_01</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>M_24</t>
+          <t>M_32</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>MT_15</t>
+          <t>MT_65</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2200,30 +2200,30 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>24_A_02</t>
+          <t>21_G_01</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>P_05</t>
+          <t>L_32</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>PT_29</t>
+          <t>MT_65</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>ll,ml</t>
         </is>
       </c>
       <c r="H50" t="n">
@@ -2236,21 +2236,21 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>21_B_02</t>
+          <t>23_H_03,24_H_00,22_B_01</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>M_21</t>
+          <t>M_09</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>MT_49</t>
+          <t>MT_62</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>bc</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -2272,21 +2272,21 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>21_B_02</t>
+          <t>21_G_02</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>L_21</t>
+          <t>M_69</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>MT_49</t>
+          <t>MT_64</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>ll,ml</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H52" t="n">
@@ -2308,17 +2308,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>23_H_01,21_B_01</t>
+          <t>22_B_00</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>M_28</t>
+          <t>P_09</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>MT_27</t>
+          <t>PT_19</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -2326,12 +2326,12 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H53" t="n">
@@ -2344,17 +2344,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>23_B_03,22_B_01,22_H_03</t>
+          <t>24_G_00</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>M_51</t>
+          <t>M_37</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>MT_18</t>
+          <t>MT_12</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -2367,7 +2367,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>bc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -2380,30 +2380,30 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>21_A_02,21_A_01,23_B_02</t>
+          <t>24_G_00</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>P_08</t>
+          <t>L_37</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>PT_18</t>
+          <t>MT_12</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>bc</t>
+          <t>ll,ml</t>
         </is>
       </c>
       <c r="H55" t="n">
@@ -2416,21 +2416,21 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>23_H_02,22_B_01</t>
+          <t>21_H_00</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>M_29</t>
+          <t>M_49</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>MT_64</t>
+          <t>MT_26</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H56" t="n">
@@ -2452,17 +2452,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>23_H_02,22_B_01</t>
+          <t>21_H_00</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>L_29</t>
+          <t>L_49</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>MT_64</t>
+          <t>MT_26</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -2475,7 +2475,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>ml</t>
+          <t>ll,ml</t>
         </is>
       </c>
       <c r="H57" t="n">
@@ -2488,21 +2488,21 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>22_H_02,22_A_01</t>
+          <t>21_G_02,23_G_00</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>M_16</t>
+          <t>M_46</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>MT_04</t>
+          <t>MT_53</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2524,17 +2524,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>22_A_01,23_A_02</t>
+          <t>23_H_03</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>M_53</t>
+          <t>P_06</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>MT_54</t>
+          <t>PT_11</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -2542,12 +2542,12 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H59" t="n">
@@ -2560,21 +2560,21 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>21_H_01,24_A_01,21_B_02</t>
+          <t>23_B_02</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>M_22</t>
+          <t>M_41</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>MT_45</t>
+          <t>MT_24</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>bc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H60" t="n">
@@ -2596,7 +2596,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>23_A_01</t>
+          <t>21_G_02</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2606,11 +2606,11 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>PT_29</t>
+          <t>PT_25</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2632,21 +2632,21 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>21_B_02,22_A_03</t>
+          <t>24_G_00</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>P_07</t>
+          <t>P_06</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>PT_20</t>
+          <t>PT_21</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H62" t="n">
@@ -2668,21 +2668,21 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>24_B_02</t>
+          <t>22_H_00,21_H_01</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>M_46</t>
+          <t>M_24</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>MT_47</t>
+          <t>MT_55</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H63" t="n">
@@ -2704,21 +2704,21 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>24_B_02</t>
+          <t>22_H_01</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>L_46</t>
+          <t>M_05</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>MT_47</t>
+          <t>MT_07</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>ll,ml</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H64" t="n">
@@ -2740,21 +2740,21 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>21_B_03</t>
+          <t>22_H_01</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>M_59</t>
+          <t>L_05</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>MT_06</t>
+          <t>MT_07</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>ll,ml</t>
         </is>
       </c>
       <c r="H65" t="n">
@@ -2776,21 +2776,21 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>21_B_03</t>
+          <t>23_G_02</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>L_59</t>
+          <t>M_48</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>MT_06</t>
+          <t>MT_42</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2799,7 +2799,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>ll,ml</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H66" t="n">
@@ -2812,17 +2812,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>24_A_01</t>
+          <t>21_G_03,24_H_00</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>P_06</t>
+          <t>M_18</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>PT_15</t>
+          <t>MT_49</t>
         </is>
       </c>
       <c r="E67" t="n">
@@ -2830,12 +2830,12 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H67" t="n">
@@ -2848,21 +2848,21 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>22_A_01,22_A_03</t>
+          <t>21_G_03,24_H_00</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>M_55</t>
+          <t>L_18</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>MT_22</t>
+          <t>MT_49</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>ml</t>
         </is>
       </c>
       <c r="H68" t="n">
@@ -2884,25 +2884,25 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>23_A_03</t>
+          <t>22_G_03</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>M_41</t>
+          <t>P_05</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>MT_18</t>
+          <t>PT_29</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -2920,21 +2920,21 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>23_A_03</t>
+          <t>23_G_02,23_G_01</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>L_41</t>
+          <t>M_33</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>MT_18</t>
+          <t>MT_55</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>ll,ml</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H70" t="n">
@@ -2956,21 +2956,21 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>23_B_03</t>
+          <t>21_G_02,23_H_03</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>P_07</t>
+          <t>P_03</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>PT_06</t>
+          <t>PT_21</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H71" t="n">
@@ -2992,25 +2992,25 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>22_H_02</t>
+          <t>21_B_00</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>P_01</t>
+          <t>M_68</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>PT_12</t>
+          <t>MT_38</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3028,30 +3028,30 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>24_B_02,21_A_03</t>
+          <t>21_B_00</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>P_08</t>
+          <t>L_68</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>PT_08</t>
+          <t>MT_38</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>ll,ml</t>
         </is>
       </c>
       <c r="H73" t="n">
@@ -3064,21 +3064,21 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>21_A_01,21_A_03,23_B_01</t>
+          <t>23_H_00</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>M_36</t>
+          <t>M_55</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>MT_12</t>
+          <t>MT_08</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>bc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H74" t="n">
@@ -3100,17 +3100,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>21_H_02</t>
+          <t>22_G_04</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>M_25</t>
+          <t>M_18</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>MT_67</t>
+          <t>MT_39</t>
         </is>
       </c>
       <c r="E75" t="n">
@@ -3136,21 +3136,21 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>21_H_02</t>
+          <t>22_G_04</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>L_25</t>
+          <t>L_18</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>MT_67</t>
+          <t>MT_39</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -3172,25 +3172,25 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>21_A_03,21_H_02</t>
+          <t>22_B_03,21_G_01</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>P_05</t>
+          <t>M_02</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>PT_17</t>
+          <t>MT_40</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -3208,30 +3208,30 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>23_A_02</t>
+          <t>22_B_03,21_G_01</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>P_04</t>
+          <t>L_02</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>PT_03</t>
+          <t>MT_40</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>ml</t>
         </is>
       </c>
       <c r="H78" t="n">
@@ -3244,17 +3244,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>22_A_01,23_H_02</t>
+          <t>23_B_00</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>M_46</t>
+          <t>P_09</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>MT_61</t>
+          <t>PT_20</t>
         </is>
       </c>
       <c r="E79" t="n">
@@ -3262,12 +3262,12 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H79" t="n">
@@ -3280,17 +3280,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>24_A_03,22_B_03,22_H_03</t>
+          <t>22_B_00</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>M_53</t>
+          <t>M_32</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>MT_59</t>
+          <t>MT_25</t>
         </is>
       </c>
       <c r="E80" t="n">
@@ -3303,7 +3303,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>bc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H80" t="n">
@@ -3316,25 +3316,25 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>21_B_01</t>
+          <t>23_G_00</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>M_10</t>
+          <t>P_04</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>MT_23</t>
+          <t>PT_18</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>22_A_01</t>
+          <t>24_H_00</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3362,11 +3362,11 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>PT_28</t>
+          <t>PT_05</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -3388,21 +3388,21 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>23_B_03</t>
+          <t>23_B_00,22_B_03</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>M_40</t>
+          <t>M_22</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>MT_54</t>
+          <t>MT_43</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H83" t="n">
@@ -3424,30 +3424,30 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>23_B_03</t>
+          <t>23_B_00,24_G_00</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>L_40</t>
+          <t>P_06</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>MT_54</t>
+          <t>PT_23</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>ll,ml</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H84" t="n">
@@ -3460,30 +3460,30 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>23_A_02</t>
+          <t>22_G_00,22_B_01,22_H_01</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>M_34</t>
+          <t>P_02</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>MT_25</t>
+          <t>PT_01</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>bc</t>
         </is>
       </c>
       <c r="H85" t="n">
@@ -3496,30 +3496,30 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>21_H_02,24_A_02</t>
+          <t>21_B_00</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>M_57</t>
+          <t>P_04</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>MT_43</t>
+          <t>PT_15</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H86" t="n">
@@ -3532,21 +3532,21 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>21_H_02,24_A_02</t>
+          <t>21_H_03,22_B_01,22_G_04</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>L_57</t>
+          <t>M_30</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>MT_43</t>
+          <t>MT_57</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>ml</t>
+          <t>bc</t>
         </is>
       </c>
       <c r="H87" t="n">
@@ -3568,30 +3568,30 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>21_B_02</t>
+          <t>23_G_00,21_B_00</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>P_01</t>
+          <t>M_43</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>PT_28</t>
+          <t>MT_46</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H88" t="n">
@@ -3604,21 +3604,21 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>21_H_01</t>
+          <t>23_B_00,22_G_03,23_G_02</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>M_62</t>
+          <t>M_39</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>MT_23</t>
+          <t>MT_03</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>bc</t>
         </is>
       </c>
       <c r="H89" t="n">
@@ -3640,21 +3640,21 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>21_H_01</t>
+          <t>22_B_01,21_H_01</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>L_62</t>
+          <t>M_45</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>MT_23</t>
+          <t>MT_29</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>ll,ml</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H90" t="n">
@@ -3676,25 +3676,25 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>21_H_02</t>
+          <t>23_G_02</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>M_31</t>
+          <t>P_06</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>MT_50</t>
+          <t>PT_19</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -3712,21 +3712,21 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>21_H_02</t>
+          <t>23_G_01</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>L_31</t>
+          <t>M_27</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>MT_50</t>
+          <t>MT_40</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -3735,7 +3735,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>ll,ml</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H92" t="n">
@@ -3748,21 +3748,21 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>24_A_01</t>
+          <t>23_G_01</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>M_33</t>
+          <t>L_27</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>MT_62</t>
+          <t>MT_40</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>ll,ml</t>
         </is>
       </c>
       <c r="H93" t="n">
@@ -3784,17 +3784,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>24_B_01</t>
+          <t>23_B_01</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>M_38</t>
+          <t>M_67</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>MT_41</t>
+          <t>MT_10</t>
         </is>
       </c>
       <c r="E94" t="n">
@@ -3820,21 +3820,21 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>24_B_01</t>
+          <t>23_B_01</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>L_38</t>
+          <t>L_67</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>MT_41</t>
+          <t>MT_10</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -3856,12 +3856,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>23_A_02,22_B_02</t>
+          <t>21_G_03</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>M_29</t>
+          <t>M_65</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3870,7 +3870,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H96" t="n">
@@ -3892,25 +3892,25 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>24_H_01</t>
+          <t>21_H_02</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>P_01</t>
+          <t>M_58</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>PT_19</t>
+          <t>MT_52</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -3928,21 +3928,21 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>22_B_02,21_H_01</t>
+          <t>22_B_01,22_G_00,21_H_01</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>M_16</t>
+          <t>M_48</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>MT_28</t>
+          <t>MT_21</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>bc</t>
         </is>
       </c>
       <c r="H98" t="n">
@@ -3964,21 +3964,21 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>22_B_02,21_H_01</t>
+          <t>22_G_04</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>L_16</t>
+          <t>M_41</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>MT_28</t>
+          <t>MT_05</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>ml</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H99" t="n">
@@ -4000,30 +4000,30 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>23_B_02,22_A_02</t>
+          <t>21_H_01</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>M_67</t>
+          <t>P_08</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>MT_55</t>
+          <t>PT_08</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H100" t="n">
@@ -4036,21 +4036,21 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>24_B_03,23_A_03</t>
+          <t>22_B_00,22_B_03</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>P_02</t>
+          <t>P_07</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>PT_09</t>
+          <t>PT_14</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -4072,21 +4072,21 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>24_H_02,24_H_01</t>
+          <t>22_B_00</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>M_28</t>
+          <t>M_51</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>MT_31</t>
+          <t>MT_47</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H102" t="n">
@@ -4108,21 +4108,21 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>24_H_01</t>
+          <t>22_B_00</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>M_05</t>
+          <t>L_51</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>MT_69</t>
+          <t>MT_47</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>ll,ml</t>
         </is>
       </c>
       <c r="H103" t="n">
@@ -4144,21 +4144,21 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>24_B_03</t>
+          <t>23_G_00,21_H_03</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>P_02</t>
+          <t>P_01</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>PT_02</t>
+          <t>PT_07</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H104" t="n">
@@ -4180,21 +4180,21 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>24_H_03</t>
+          <t>23_B_01</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>M_69</t>
+          <t>M_56</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>MT_06</t>
+          <t>MT_20</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -4221,20 +4221,20 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>M_47</t>
+          <t>P_06</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>MT_26</t>
+          <t>PT_28</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -4252,21 +4252,21 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>22_H_01</t>
+          <t>22_B_02,22_H_01</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>L_47</t>
+          <t>M_64</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>MT_26</t>
+          <t>MT_06</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>ll,ml</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H107" t="n">
@@ -4288,25 +4288,25 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>22_H_01</t>
+          <t>23_B_02</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>P_05</t>
+          <t>M_04</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>PT_15</t>
+          <t>MT_57</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -4324,30 +4324,30 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>24_B_03</t>
+          <t>23_B_02</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>P_09</t>
+          <t>L_04</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>PT_18</t>
+          <t>MT_57</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>ll,ml</t>
         </is>
       </c>
       <c r="H109" t="n">
@@ -4360,30 +4360,30 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>24_B_02,21_A_01</t>
+          <t>22_G_02</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>P_02</t>
+          <t>M_55</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>PT_21</t>
+          <t>MT_41</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H110" t="n">
@@ -4396,21 +4396,21 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>24_H_02</t>
+          <t>22_G_02</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>M_65</t>
+          <t>L_55</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>MT_24</t>
+          <t>MT_41</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -4419,7 +4419,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>ll,ml</t>
         </is>
       </c>
       <c r="H111" t="n">
@@ -4432,17 +4432,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>22_H_01</t>
+          <t>22_G_03</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>M_11</t>
+          <t>M_03</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>MT_05</t>
+          <t>MT_66</t>
         </is>
       </c>
       <c r="E112" t="n">
@@ -4468,30 +4468,30 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>21_B_02,22_H_02,24_H_01</t>
+          <t>24_G_00</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>P_01</t>
+          <t>M_64</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>PT_12</t>
+          <t>MT_08</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>bc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H113" t="n">
@@ -4504,17 +4504,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>24_B_02</t>
+          <t>22_G_04</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>P_03</t>
+          <t>M_60</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>PT_16</t>
+          <t>MT_20</t>
         </is>
       </c>
       <c r="E114" t="n">
@@ -4522,7 +4522,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -4540,21 +4540,21 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>22_A_01,21_A_03</t>
+          <t>23_B_01,22_B_03</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>M_16</t>
+          <t>M_36</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>MT_57</t>
+          <t>MT_41</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -4576,21 +4576,21 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>23_A_01,22_A_01</t>
+          <t>23_B_01,22_B_03</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>M_08</t>
+          <t>L_36</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>MT_40</t>
+          <t>MT_41</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>ml</t>
         </is>
       </c>
       <c r="H116" t="n">
@@ -4612,21 +4612,21 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>22_A_02,22_B_01</t>
+          <t>22_B_00</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>P_03</t>
+          <t>P_01</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>PT_21</t>
+          <t>PT_03</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H117" t="n">
@@ -4648,25 +4648,25 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>22_H_02</t>
+          <t>23_H_03</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>P_08</t>
+          <t>M_69</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>PT_07</t>
+          <t>MT_15</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -4684,21 +4684,21 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>23_B_03</t>
+          <t>23_H_03</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>M_19</t>
+          <t>L_69</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>MT_39</t>
+          <t>MT_15</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>ll,ml</t>
         </is>
       </c>
       <c r="H119" t="n">
@@ -4720,21 +4720,21 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>24_B_03</t>
+          <t>22_B_00,24_G_00</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>M_36</t>
+          <t>M_26</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>MT_51</t>
+          <t>MT_56</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H120" t="n">
@@ -4756,30 +4756,30 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>21_A_02</t>
+          <t>21_H_03,23_B_00</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>P_09</t>
+          <t>M_45</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>PT_28</t>
+          <t>MT_17</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H121" t="n">
@@ -4792,21 +4792,21 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>21_H_03,22_A_02</t>
+          <t>21_H_03,23_B_00</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>M_63</t>
+          <t>L_45</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>MT_14</t>
+          <t>MT_17</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -4815,7 +4815,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>ml</t>
         </is>
       </c>
       <c r="H122" t="n">
@@ -4828,21 +4828,21 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>21_H_03,22_A_02</t>
+          <t>23_G_02,21_G_02</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>L_63</t>
+          <t>M_44</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>MT_14</t>
+          <t>MT_02</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>ml</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H123" t="n">
@@ -4864,7 +4864,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>21_H_02</t>
+          <t>21_H_01,22_G_01,22_G_03</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4874,7 +4874,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>PT_24</t>
+          <t>PT_12</t>
         </is>
       </c>
       <c r="E124" t="n">
@@ -4887,7 +4887,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>bc</t>
         </is>
       </c>
       <c r="H124" t="n">
@@ -4900,25 +4900,25 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>24_B_02</t>
+          <t>21_H_01</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>P_03</t>
+          <t>M_13</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>PT_19</t>
+          <t>MT_55</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -4936,30 +4936,30 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>24_H_01</t>
+          <t>21_H_01</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>P_04</t>
+          <t>L_13</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>PT_17</t>
+          <t>MT_55</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>ll,ml</t>
         </is>
       </c>
       <c r="H126" t="n">
@@ -4972,30 +4972,30 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>23_A_02,24_A_03</t>
+          <t>23_H_03</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>M_42</t>
+          <t>P_07</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>MT_24</t>
+          <t>PT_07</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H127" t="n">
@@ -5008,21 +5008,21 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>23_H_02,24_H_03</t>
+          <t>24_H_00,24_B_00</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>M_27</t>
+          <t>M_54</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>MT_38</t>
+          <t>MT_62</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -5044,30 +5044,30 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>24_H_03</t>
+          <t>22_G_04,22_G_02</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>P_07</t>
+          <t>M_46</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>PT_25</t>
+          <t>MT_15</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H129" t="n">
@@ -5080,21 +5080,21 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>22_B_01,22_A_03</t>
+          <t>22_G_04,22_G_02</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>M_14</t>
+          <t>L_46</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>MT_41</t>
+          <t>MT_15</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -5103,7 +5103,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>ml</t>
         </is>
       </c>
       <c r="H130" t="n">
@@ -5116,21 +5116,21 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>22_B_01,22_A_03</t>
+          <t>21_G_01,23_H_03</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>L_14</t>
+          <t>M_20</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>MT_41</t>
+          <t>MT_15</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>ml</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H131" t="n">
@@ -5152,17 +5152,17 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>23_B_03,21_B_01,22_H_01</t>
+          <t>24_B_00,21_G_01</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>M_48</t>
+          <t>P_03</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>MT_35</t>
+          <t>PT_22</t>
         </is>
       </c>
       <c r="E132" t="n">
@@ -5170,12 +5170,12 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>bc</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H132" t="n">
@@ -5188,21 +5188,21 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>22_H_03,24_H_01</t>
+          <t>22_G_04,23_G_02</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>M_33</t>
+          <t>M_35</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>MT_09</t>
+          <t>MT_54</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -5224,21 +5224,21 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>23_B_01</t>
+          <t>21_G_01</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>P_03</t>
+          <t>P_06</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>PT_06</t>
+          <t>PT_13</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -5260,30 +5260,30 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>23_A_02,24_H_01</t>
+          <t>22_B_03</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>M_17</t>
+          <t>P_09</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>MT_61</t>
+          <t>PT_25</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H135" t="n">
@@ -5296,12 +5296,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>23_A_02,24_H_01</t>
+          <t>21_H_02,24_B_00</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>L_17</t>
+          <t>M_22</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -5310,7 +5310,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>ml</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H136" t="n">
@@ -5332,30 +5332,30 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>24_B_03,21_A_03</t>
+          <t>21_H_02,24_B_00</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>P_08</t>
+          <t>L_22</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>PT_27</t>
+          <t>MT_61</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>ml</t>
         </is>
       </c>
       <c r="H137" t="n">
@@ -5368,17 +5368,17 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>22_H_02</t>
+          <t>22_G_01</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>M_69</t>
+          <t>M_12</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>MT_10</t>
+          <t>MT_44</t>
         </is>
       </c>
       <c r="E138" t="n">
@@ -5404,21 +5404,21 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>22_H_02</t>
+          <t>22_G_01</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>L_69</t>
+          <t>L_12</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>MT_10</t>
+          <t>MT_44</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -5440,25 +5440,25 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>22_H_01,24_H_02</t>
+          <t>22_G_02,21_G_02</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>P_06</t>
+          <t>M_18</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>PT_20</t>
+          <t>MT_32</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -5476,30 +5476,30 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>23_A_02,23_H_02,23_H_03</t>
+          <t>22_G_02,21_G_02</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>P_01</t>
+          <t>L_18</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>PT_08</t>
+          <t>MT_32</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>bc</t>
+          <t>ml</t>
         </is>
       </c>
       <c r="H141" t="n">
@@ -5512,30 +5512,30 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>23_B_03,24_H_03</t>
+          <t>23_B_02,22_H_01,21_G_01</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>P_02</t>
+          <t>M_15</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>PT_15</t>
+          <t>MT_56</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>bc</t>
         </is>
       </c>
       <c r="H142" t="n">
@@ -5548,30 +5548,30 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>21_A_01,23_A_03,24_A_01</t>
+          <t>22_G_04,22_H_01</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>M_68</t>
+          <t>P_04</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>MT_65</t>
+          <t>PT_07</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>bc</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H143" t="n">
@@ -5584,30 +5584,30 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>21_A_02,22_A_02</t>
+          <t>22_B_02</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>P_01</t>
+          <t>M_47</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>PT_22</t>
+          <t>MT_44</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H144" t="n">
@@ -5620,17 +5620,17 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>22_B_01</t>
+          <t>22_B_03</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>M_31</t>
+          <t>M_32</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>MT_24</t>
+          <t>MT_44</t>
         </is>
       </c>
       <c r="E145" t="n">
@@ -5656,21 +5656,21 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>23_B_03</t>
+          <t>22_B_00</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>M_54</t>
+          <t>M_65</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>MT_27</t>
+          <t>MT_50</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -5692,21 +5692,21 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>23_B_03</t>
+          <t>22_B_00</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>L_54</t>
+          <t>L_65</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>MT_27</t>
+          <t>MT_50</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -5728,21 +5728,21 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>21_B_02,22_B_02</t>
+          <t>22_B_01</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>M_60</t>
+          <t>M_39</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>MT_21</t>
+          <t>MT_19</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H148" t="n">
@@ -5764,21 +5764,21 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>21_B_02,22_B_02</t>
+          <t>22_B_01</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>L_60</t>
+          <t>L_39</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>MT_21</t>
+          <t>MT_19</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>ml</t>
+          <t>ll,ml</t>
         </is>
       </c>
       <c r="H149" t="n">
@@ -5800,17 +5800,17 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>21_A_03,24_B_01,24_A_01</t>
+          <t>23_H_03,24_H_01</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>M_50</t>
+          <t>P_07</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>MT_14</t>
+          <t>PT_17</t>
         </is>
       </c>
       <c r="E150" t="n">
@@ -5818,12 +5818,12 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>bc</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H150" t="n">
@@ -5836,30 +5836,30 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>21_A_01</t>
+          <t>21_G_00,23_G_01</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>M_60</t>
+          <t>P_04</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>MT_47</t>
+          <t>PT_27</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H151" t="n">
@@ -5872,21 +5872,21 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>22_B_03,23_B_02</t>
+          <t>23_B_02,23_H_01,23_G_01</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>M_16</t>
+          <t>M_69</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>MT_39</t>
+          <t>MT_58</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -5895,7 +5895,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>bc</t>
         </is>
       </c>
       <c r="H152" t="n">
@@ -5908,30 +5908,30 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>22_B_03,23_B_02</t>
+          <t>22_B_03,22_B_01</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>L_16</t>
+          <t>P_05</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>MT_39</t>
+          <t>PT_12</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>ml</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H153" t="n">
@@ -5944,21 +5944,21 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>21_H_02</t>
+          <t>21_B_00</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>M_54</t>
+          <t>M_18</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>MT_44</t>
+          <t>MT_11</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -5980,21 +5980,21 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>21_H_03,23_A_01</t>
+          <t>21_B_00</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>M_21</t>
+          <t>L_18</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>MT_19</t>
+          <t>MT_11</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>ll,ml</t>
         </is>
       </c>
       <c r="H155" t="n">
@@ -6016,21 +6016,21 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>22_H_02,21_H_03</t>
+          <t>23_H_03</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>M_20</t>
+          <t>M_39</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>MT_62</t>
+          <t>MT_15</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H156" t="n">
@@ -6052,30 +6052,30 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>23_B_02</t>
+          <t>23_H_03</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>P_08</t>
+          <t>L_39</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>PT_12</t>
+          <t>MT_15</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>ll,ml</t>
         </is>
       </c>
       <c r="H157" t="n">
@@ -6088,30 +6088,30 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>23_A_03,23_B_02,21_A_01</t>
+          <t>22_B_02</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>P_02</t>
+          <t>M_28</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>PT_02</t>
+          <t>MT_23</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>m</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>bc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H158" t="n">
@@ -6124,25 +6124,25 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>23_H_01,24_A_03</t>
+          <t>21_H_03,22_H_00</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>M_62</t>
+          <t>P_06</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>MT_34</t>
+          <t>PT_23</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -6160,21 +6160,21 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>23_H_01,24_A_03</t>
+          <t>22_G_00,21_H_02</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>L_62</t>
+          <t>M_37</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>MT_34</t>
+          <t>MT_31</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>ml</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H160" t="n">
@@ -6196,17 +6196,17 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>23_B_03,22_H_03</t>
+          <t>22_G_00,21_H_02</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>M_05</t>
+          <t>L_37</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>MT_65</t>
+          <t>MT_31</t>
         </is>
       </c>
       <c r="E161" t="n">
@@ -6219,7 +6219,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>ml</t>
         </is>
       </c>
       <c r="H161" t="n">
@@ -6232,30 +6232,30 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>23_B_03,22_H_03</t>
+          <t>21_H_03</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>L_05</t>
+          <t>P_06</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>MT_65</t>
+          <t>PT_07</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>ml</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H162" t="n">
@@ -6268,21 +6268,21 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>24_B_03,22_A_02</t>
+          <t>23_B_00,23_H_02</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>P_08</t>
+          <t>P_03</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>PT_07</t>
+          <t>PT_15</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -6304,21 +6304,21 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>24_H_01,21_H_03</t>
+          <t>23_G_00,21_G_03</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>M_62</t>
+          <t>M_02</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>MT_02</t>
+          <t>MT_28</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -6340,21 +6340,21 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>24_H_01,21_H_03</t>
+          <t>24_B_00</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>L_62</t>
+          <t>M_61</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>MT_02</t>
+          <t>MT_30</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -6363,7 +6363,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>ml</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H165" t="n">
@@ -6376,21 +6376,21 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>22_B_02,24_A_02</t>
+          <t>22_G_02</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>P_03</t>
+          <t>P_05</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>PT_26</t>
+          <t>PT_22</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H166" t="n">
@@ -6412,21 +6412,21 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>24_H_02</t>
+          <t>23_B_00</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>M_19</t>
+          <t>M_35</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>MT_64</t>
+          <t>MT_30</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -6448,21 +6448,21 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>23_A_03</t>
+          <t>23_B_00</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>M_18</t>
+          <t>L_35</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>MT_48</t>
+          <t>MT_30</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -6471,7 +6471,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>ll,ml</t>
         </is>
       </c>
       <c r="H168" t="n">
@@ -6484,17 +6484,17 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>22_A_02,23_A_03</t>
+          <t>22_G_00</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>M_67</t>
+          <t>P_01</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>MT_10</t>
+          <t>PT_19</t>
         </is>
       </c>
       <c r="E169" t="n">
@@ -6502,12 +6502,12 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>mc</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H169" t="n">
@@ -6520,30 +6520,30 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>22_A_02,23_A_03</t>
+          <t>21_H_03</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>L_67</t>
+          <t>P_07</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>MT_10</t>
+          <t>PT_16</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>ml</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H170" t="n">
@@ -6556,21 +6556,21 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>24_A_03</t>
+          <t>23_G_00,24_G_00</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>M_03</t>
+          <t>M_50</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>MT_14</t>
+          <t>MT_34</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -6579,7 +6579,7 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>mc</t>
         </is>
       </c>
       <c r="H171" t="n">
@@ -6592,21 +6592,21 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>24_A_03</t>
+          <t>23_G_00</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>L_03</t>
+          <t>M_17</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>MT_14</t>
+          <t>MT_38</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>ll,ml</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H172" t="n">
@@ -6628,12 +6628,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>24_A_01</t>
+          <t>22_G_02</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>M_34</t>
+          <t>M_67</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -6642,7 +6642,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -6664,21 +6664,21 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>24_A_01</t>
+          <t>21_B_00</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>L_34</t>
+          <t>M_13</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>MT_04</t>
+          <t>MT_61</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>ll,ml</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H174" t="n">
@@ -6700,21 +6700,21 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>23_B_03</t>
+          <t>21_B_00</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>M_03</t>
+          <t>L_13</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>MT_19</t>
+          <t>MT_61</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>lc,mc</t>
+          <t>ll,ml</t>
         </is>
       </c>
       <c r="H175" t="n">
@@ -6736,21 +6736,21 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>23_B_03</t>
+          <t>22_H_01</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>L_03</t>
+          <t>M_67</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>MT_19</t>
+          <t>MT_67</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>ll,ml</t>
+          <t>lc,mc</t>
         </is>
       </c>
       <c r="H176" t="n">
@@ -6772,25 +6772,25 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>21_A_01,24_B_02</t>
+          <t>22_B_00,23_H_00</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>M_67</t>
+          <t>P_05</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>MT_13</t>
+          <t>PT_11</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -6808,21 +6808,21 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>21_A_01,24_B_02</t>
+          <t>23_G_00,22_G_01,21_G_02</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>L_67</t>
+          <t>M_28</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>MT_13</t>
+          <t>MT_67</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -6831,370 +6831,10 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>ml</t>
+          <t>bc</t>
         </is>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="n">
-        <v>178</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>23_A_03</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>M_52</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>MT_31</t>
-        </is>
-      </c>
-      <c r="E179" t="n">
-        <v>32</v>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="G179" t="inlineStr">
-        <is>
-          <t>lc,mc</t>
-        </is>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="n">
-        <v>179</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>22_H_02</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>M_03</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>MT_53</t>
-        </is>
-      </c>
-      <c r="E180" t="n">
-        <v>16</v>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="G180" t="inlineStr">
-        <is>
-          <t>lc,mc</t>
-        </is>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="n">
-        <v>180</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>22_H_02</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>L_03</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>MT_53</t>
-        </is>
-      </c>
-      <c r="E181" t="n">
-        <v>6</v>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="G181" t="inlineStr">
-        <is>
-          <t>ll,ml</t>
-        </is>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="n">
-        <v>181</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>21_A_02,22_B_03</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>M_40</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>MT_52</t>
-        </is>
-      </c>
-      <c r="E182" t="n">
-        <v>16</v>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="G182" t="inlineStr">
-        <is>
-          <t>mc</t>
-        </is>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="n">
-        <v>182</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>21_A_02,22_B_03</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>L_40</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>MT_52</t>
-        </is>
-      </c>
-      <c r="E183" t="n">
-        <v>7</v>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="G183" t="inlineStr">
-        <is>
-          <t>ml</t>
-        </is>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="n">
-        <v>183</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>23_H_02,24_B_03,23_B_02</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>M_51</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>MT_03</t>
-        </is>
-      </c>
-      <c r="E184" t="n">
-        <v>20</v>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="G184" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="H184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="n">
-        <v>184</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>24_B_01,24_B_03</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>M_38</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>MT_54</t>
-        </is>
-      </c>
-      <c r="E185" t="n">
-        <v>8</v>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="G185" t="inlineStr">
-        <is>
-          <t>mc</t>
-        </is>
-      </c>
-      <c r="H185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="n">
-        <v>185</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>22_B_02</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>M_38</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>MT_46</t>
-        </is>
-      </c>
-      <c r="E186" t="n">
-        <v>32</v>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="G186" t="inlineStr">
-        <is>
-          <t>lc,mc</t>
-        </is>
-      </c>
-      <c r="H186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="n">
-        <v>186</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>22_H_02,23_B_01</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>M_01</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>MT_38</t>
-        </is>
-      </c>
-      <c r="E187" t="n">
-        <v>8</v>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t>mc</t>
-        </is>
-      </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="n">
-        <v>187</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>22_H_02,23_B_01</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>L_01</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>MT_38</t>
-        </is>
-      </c>
-      <c r="E188" t="n">
-        <v>3</v>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="G188" t="inlineStr">
-        <is>
-          <t>ml</t>
-        </is>
-      </c>
-      <c r="H188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7209,7 +6849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7235,7 +6875,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>21_A_01</t>
+          <t>21_B_00</t>
         </is>
       </c>
     </row>
@@ -7245,7 +6885,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>21_A_02</t>
+          <t>21_G_00</t>
         </is>
       </c>
     </row>
@@ -7255,7 +6895,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>21_A_03</t>
+          <t>21_G_01</t>
         </is>
       </c>
     </row>
@@ -7265,7 +6905,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>21_B_01</t>
+          <t>21_G_02</t>
         </is>
       </c>
     </row>
@@ -7275,7 +6915,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>21_B_02</t>
+          <t>21_G_03</t>
         </is>
       </c>
     </row>
@@ -7285,7 +6925,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>21_B_03</t>
+          <t>21_H_00</t>
         </is>
       </c>
     </row>
@@ -7325,7 +6965,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>22_A_01</t>
+          <t>22_B_00</t>
         </is>
       </c>
     </row>
@@ -7335,7 +6975,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>22_A_02</t>
+          <t>22_B_01</t>
         </is>
       </c>
     </row>
@@ -7345,7 +6985,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>22_A_03</t>
+          <t>22_B_02</t>
         </is>
       </c>
     </row>
@@ -7355,7 +6995,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>22_B_01</t>
+          <t>22_B_03</t>
         </is>
       </c>
     </row>
@@ -7365,7 +7005,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>22_B_02</t>
+          <t>22_G_00</t>
         </is>
       </c>
     </row>
@@ -7375,7 +7015,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>22_B_03</t>
+          <t>22_G_01</t>
         </is>
       </c>
     </row>
@@ -7385,7 +7025,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>22_H_01</t>
+          <t>22_G_02</t>
         </is>
       </c>
     </row>
@@ -7395,7 +7035,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>22_H_02</t>
+          <t>22_G_03</t>
         </is>
       </c>
     </row>
@@ -7405,7 +7045,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>22_H_03</t>
+          <t>22_G_04</t>
         </is>
       </c>
     </row>
@@ -7415,7 +7055,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>23_A_01</t>
+          <t>22_H_00</t>
         </is>
       </c>
     </row>
@@ -7425,7 +7065,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>23_A_02</t>
+          <t>22_H_01</t>
         </is>
       </c>
     </row>
@@ -7435,7 +7075,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>23_A_03</t>
+          <t>23_B_00</t>
         </is>
       </c>
     </row>
@@ -7465,7 +7105,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>23_B_03</t>
+          <t>23_G_00</t>
         </is>
       </c>
     </row>
@@ -7475,7 +7115,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>23_H_01</t>
+          <t>23_G_01</t>
         </is>
       </c>
     </row>
@@ -7485,7 +7125,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>23_H_02</t>
+          <t>23_G_02</t>
         </is>
       </c>
     </row>
@@ -7495,7 +7135,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>23_H_03</t>
+          <t>23_H_00</t>
         </is>
       </c>
     </row>
@@ -7505,7 +7145,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>24_A_01</t>
+          <t>23_H_01</t>
         </is>
       </c>
     </row>
@@ -7515,7 +7155,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>24_A_02</t>
+          <t>23_H_02</t>
         </is>
       </c>
     </row>
@@ -7525,7 +7165,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>24_A_03</t>
+          <t>23_H_03</t>
         </is>
       </c>
     </row>
@@ -7535,7 +7175,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>24_B_01</t>
+          <t>24_B_00</t>
         </is>
       </c>
     </row>
@@ -7545,7 +7185,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>24_B_02</t>
+          <t>24_G_00</t>
         </is>
       </c>
     </row>
@@ -7555,7 +7195,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>24_B_03</t>
+          <t>24_H_00</t>
         </is>
       </c>
     </row>
@@ -7566,26 +7206,6 @@
       <c r="B35" t="inlineStr">
         <is>
           <t>24_H_01</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>35</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>24_H_02</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>36</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>24_H_03</t>
         </is>
       </c>
     </row>
@@ -7600,7 +7220,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7641,12 +7261,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-1,0,-1,1,0</t>
+          <t>0,-1,1,-1,-1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7661,12 +7281,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0,0,0,-1,0</t>
+          <t>0,0,0,0,1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -7681,12 +7301,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-1,1,-1,0,0</t>
+          <t>0,-1,0,-1,0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -7701,12 +7321,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0,-1,0,1,0</t>
+          <t>-1,1,0,-1,1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7721,7 +7341,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1,0,0,1,0</t>
+          <t>1,-1,0,1,-1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -7741,12 +7361,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0,-1,1,0,0</t>
+          <t>1,-1,-1,-1,-1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -7756,17 +7376,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MT_09</t>
+          <t>MT_08</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0,0,1,0,-1</t>
+          <t>1,-1,0,-1,1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -7781,12 +7401,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1,0,1,0,0</t>
+          <t>1,0,1,1,0</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7796,17 +7416,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MT_12</t>
+          <t>MT_11</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0,0,0,0,-1</t>
+          <t>1,1,-1,1,1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7816,17 +7436,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MT_13</t>
+          <t>MT_12</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0,0,0,1,1</t>
+          <t>1,0,-1,0,-1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7836,17 +7456,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MT_14</t>
+          <t>MT_13</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0,0,1,0,-1</t>
+          <t>-1,-1,0,-1,0</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7856,17 +7476,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MT_15</t>
+          <t>MT_14</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0,1,0,0,0</t>
+          <t>0,0,-1,1,1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7876,12 +7496,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MT_16</t>
+          <t>MT_15</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1,0,-1,-1,1</t>
+          <t>0,0,-1,1,-1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -7896,17 +7516,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MT_18</t>
+          <t>MT_17</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0,1,0,0,1</t>
+          <t>0,0,0,0,0</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
@@ -7921,7 +7541,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0,0,-1,1,-1</t>
+          <t>-1,0,1,-1,1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -7941,12 +7561,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1,0,1,0,0</t>
+          <t>-1,1,0,0,-1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
@@ -7961,12 +7581,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0,1,1,0,1</t>
+          <t>0,0,0,-1,0</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
@@ -7981,12 +7601,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0,0,0,0,0</t>
+          <t>-1,0,-1,0,1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8001,12 +7621,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-1,1,0,1,1</t>
+          <t>0,0,0,-1,-1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
@@ -8021,7 +7641,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-1,0,0,0,0</t>
+          <t>-1,1,0,0,-1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -8041,12 +7661,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0,0,0,0,0</t>
+          <t>0,-1,1,1,0</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -8061,7 +7681,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1,-1,-1,-1,0</t>
+          <t>-1,1,0,0,0</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -8081,12 +7701,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1,1,0,0,-1</t>
+          <t>0,0,-1,0,1</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -8101,12 +7721,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0,0,0,0,0</t>
+          <t>1,0,-1,0,-1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8116,12 +7736,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MT_31</t>
+          <t>MT_29</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0,-1,1,-1,0</t>
+          <t>-1,0,1,-1,1</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -8136,12 +7756,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MT_34</t>
+          <t>MT_30</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1,1,0,0,1</t>
+          <t>1,1,1,0,1</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -8156,17 +7776,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MT_35</t>
+          <t>MT_31</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0,0,-1,-1,0</t>
+          <t>1,0,0,0,-1</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -8176,17 +7796,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MT_38</t>
+          <t>MT_32</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0,0,-1,0,0</t>
+          <t>0,1,0,-1,0</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -8196,17 +7816,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MT_39</t>
+          <t>MT_34</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1,1,0,1,0</t>
+          <t>-1,-1,1,0,0</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -8216,17 +7836,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MT_40</t>
+          <t>MT_38</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>-1,1,1,1,1</t>
+          <t>0,-1,0,0,0</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -8236,12 +7856,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MT_41</t>
+          <t>MT_39</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1,1,0,0,1</t>
+          <t>0,-1,0,-1,1</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -8256,12 +7876,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MT_43</t>
+          <t>MT_40</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0,-1,1,0,0</t>
+          <t>0,1,0,-1,1</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -8276,12 +7896,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MT_44</t>
+          <t>MT_41</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0,0,0,0,-1</t>
+          <t>0,1,1,0,-1</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -8296,12 +7916,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MT_45</t>
+          <t>MT_42</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0,-1,0,0,1</t>
+          <t>1,1,0,-1,-1</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -8316,17 +7936,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MT_46</t>
+          <t>MT_43</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0,0,1,-1,1</t>
+          <t>0,1,0,1,-1</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8336,12 +7956,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MT_47</t>
+          <t>MT_44</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>-1,0,-1,1,0</t>
+          <t>0,1,-1,-1,-1</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -8356,17 +7976,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MT_48</t>
+          <t>MT_46</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1,0,1,0,-1</t>
+          <t>0,-1,0,0,0</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8376,12 +7996,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MT_49</t>
+          <t>MT_47</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1,0,0,0,0</t>
+          <t>0,-1,-1,-1,0</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -8396,17 +8016,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MT_50</t>
+          <t>MT_49</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0,-1,0,0,0</t>
+          <t>1,-1,0,-1,0</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8416,17 +8036,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MT_51</t>
+          <t>MT_50</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>-1,1,1,0,1</t>
+          <t>0,0,0,0,1</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -8436,12 +8056,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MT_52</t>
+          <t>MT_51</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0,0,0,-1,-1</t>
+          <t>1,1,0,0,1</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -8456,17 +8076,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MT_53</t>
+          <t>MT_52</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0,0,0,0,0</t>
+          <t>-1,0,0,0,0</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
@@ -8476,17 +8096,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MT_54</t>
+          <t>MT_53</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1,0,1,0,0</t>
+          <t>0,0,0,0,1</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8496,17 +8116,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MT_55</t>
+          <t>MT_54</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0,0,-1,-1,-1</t>
+          <t>1,0,-1,0,0</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -8516,17 +8136,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MT_56</t>
+          <t>MT_55</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0,-1,0,0,-1</t>
+          <t>-1,1,1,0,0</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
@@ -8536,17 +8156,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MT_57</t>
+          <t>MT_56</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0,0,-1,0,0</t>
+          <t>0,1,1,1,0</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8556,12 +8176,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MT_58</t>
+          <t>MT_57</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0,0,-1,0,-1</t>
+          <t>-1,0,0,-1,-1</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -8576,17 +8196,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MT_59</t>
+          <t>MT_58</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>-1,0,0,-1,0</t>
+          <t>1,0,-1,1,0</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8601,12 +8221,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>-1,1,1,0,0</t>
+          <t>-1,-1,0,1,1</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8621,7 +8241,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1,-1,0,1,-1</t>
+          <t>0,0,1,1,0</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -8641,12 +8261,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1,-1,-1,0,-1</t>
+          <t>1,0,0,0,-1</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8661,7 +8281,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0,-1,1,0,0</t>
+          <t>-1,0,-1,0,-1</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -8681,12 +8301,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>-1,-1,0,-1,1</t>
+          <t>0,0,0,1,1</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8701,12 +8321,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0,0,-1,0,1</t>
+          <t>1,0,1,-1,1</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -8716,17 +8336,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MT_67</t>
+          <t>MT_66</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0,-1,0,1,1</t>
+          <t>-1,-1,0,0,1</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8736,12 +8356,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MT_69</t>
+          <t>MT_67</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0,1,-1,0,-1</t>
+          <t>1,1,-1,1,1</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -8756,17 +8376,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>PT_02</t>
+          <t>MT_69</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0,0,0,-1,0</t>
+          <t>-1,0,1,-1,1</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8776,17 +8396,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>PT_03</t>
+          <t>PT_01</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0,0,-1,0,0</t>
+          <t>0,-1,0,0,1</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -8796,12 +8416,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>PT_04</t>
+          <t>PT_03</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0,0,0,0,1</t>
+          <t>0,-1,0,-1,0</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -8816,12 +8436,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>PT_06</t>
+          <t>PT_05</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0,-1,1,-1,1</t>
+          <t>-1,1,0,0,1</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -8836,12 +8456,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>PT_07</t>
+          <t>PT_06</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>1,0,0,-1,-1</t>
+          <t>-1,1,0,0,-1</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -8856,17 +8476,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>PT_08</t>
+          <t>PT_07</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>0,0,0,0,0</t>
+          <t>0,0,1,0,0</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8876,17 +8496,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>PT_09</t>
+          <t>PT_08</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>-1,0,0,-1,0</t>
+          <t>1,-1,1,-1,-1</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8896,12 +8516,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>PT_12</t>
+          <t>PT_10</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>-1,1,0,0,1</t>
+          <t>1,-1,1,0,0</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -8916,17 +8536,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>PT_15</t>
+          <t>PT_11</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>0,1,0,0,0</t>
+          <t>0,0,1,0,-1</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
@@ -8936,17 +8556,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>PT_16</t>
+          <t>PT_12</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>0,1,0,-1,0</t>
+          <t>1,0,0,1,0</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -8956,12 +8576,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>PT_17</t>
+          <t>PT_13</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>0,0,0,0,0</t>
+          <t>0,0,-1,-1,1</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -8976,17 +8596,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>PT_18</t>
+          <t>PT_14</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>0,1,0,1,-1</t>
+          <t>1,1,0,1,-1</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
@@ -8996,17 +8616,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>PT_19</t>
+          <t>PT_15</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>0,1,0,0,0</t>
+          <t>0,0,-1,1,1</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
@@ -9016,12 +8636,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>PT_20</t>
+          <t>PT_16</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>-1,0,0,1,0</t>
+          <t>1,0,-1,0,-1</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -9036,12 +8656,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>PT_21</t>
+          <t>PT_17</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>0,0,1,0,-1</t>
+          <t>-1,0,1,1,-1</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -9056,12 +8676,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>PT_22</t>
+          <t>PT_18</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>0,0,0,-1,0</t>
+          <t>1,0,0,0,0</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -9076,17 +8696,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>PT_24</t>
+          <t>PT_19</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>-1,0,0,1,1</t>
+          <t>0,0,0,0,0</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -9096,12 +8716,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>PT_25</t>
+          <t>PT_20</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>0,0,0,0,0</t>
+          <t>-1,0,-1,-1,-1</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -9116,17 +8736,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>PT_26</t>
+          <t>PT_21</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>0,0,0,0,0</t>
+          <t>0,0,0,0,1</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -9136,17 +8756,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>PT_27</t>
+          <t>PT_22</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>0,0,-1,0,-1</t>
+          <t>0,-1,-1,-1,1</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -9156,17 +8776,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>PT_28</t>
+          <t>PT_23</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>1,-1,0,0,0</t>
+          <t>-1,0,-1,-1,0</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -9176,17 +8796,77 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
+          <t>PT_25</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>1,1,1,1,-1</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>PT_27</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>0,-1,-1,-1,-1</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>PT_28</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>0,0,1,1,0</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
           <t>PT_29</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>0,0,-1,0,-1</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>-1</t>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>1,0,1,0,-1</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -9201,7 +8881,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C92"/>
+  <dimension ref="A1:C88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9232,12 +8912,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L_01</t>
+          <t>L_02</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0,0,0,-1,0</t>
+          <t>0,1,0,1,0</t>
         </is>
       </c>
     </row>
@@ -9247,12 +8927,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L_03</t>
+          <t>L_04</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0,0,0,0,0</t>
+          <t>0,0,0,-1,0</t>
         </is>
       </c>
     </row>
@@ -9267,7 +8947,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1,-1,0,0,0</t>
+          <t>0,0,1,0,0</t>
         </is>
       </c>
     </row>
@@ -9277,12 +8957,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L_14</t>
+          <t>L_12</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0,-1,0,1,0</t>
+          <t>-1,0,0,0,0</t>
         </is>
       </c>
     </row>
@@ -9292,12 +8972,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>L_16</t>
+          <t>L_13</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0,0,0,0,1</t>
+          <t>0,-1,0,-1,0</t>
         </is>
       </c>
     </row>
@@ -9307,12 +8987,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>L_17</t>
+          <t>L_16</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0,0,1,0,1</t>
+          <t>0,0,-1,0,0</t>
         </is>
       </c>
     </row>
@@ -9322,12 +9002,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>L_21</t>
+          <t>L_18</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0,0,0,-1,0</t>
+          <t>0,0,0,0,-1</t>
         </is>
       </c>
     </row>
@@ -9337,12 +9017,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>L_23</t>
+          <t>L_22</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0,1,0,0,0</t>
+          <t>0,0,0,0,-1</t>
         </is>
       </c>
     </row>
@@ -9352,12 +9032,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>L_25</t>
+          <t>L_23</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0,0,-1,0,0</t>
+          <t>0,1,1,0,1</t>
         </is>
       </c>
     </row>
@@ -9367,12 +9047,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>L_29</t>
+          <t>L_24</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-1,1,0,-1,1</t>
+          <t>0,0,-1,0,1</t>
         </is>
       </c>
     </row>
@@ -9382,12 +9062,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>L_31</t>
+          <t>L_27</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0,0,0,0,0</t>
+          <t>1,-1,-1,0,0</t>
         </is>
       </c>
     </row>
@@ -9397,12 +9077,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>L_33</t>
+          <t>L_30</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0,-1,0,0,0</t>
+          <t>0,0,0,0,1</t>
         </is>
       </c>
     </row>
@@ -9412,12 +9092,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>L_34</t>
+          <t>L_32</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-1,0,0,1,0</t>
+          <t>0,0,-1,0,0</t>
         </is>
       </c>
     </row>
@@ -9427,12 +9107,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>L_38</t>
+          <t>L_35</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-1,0,-1,0,-1</t>
+          <t>-1,0,1,1,0</t>
         </is>
       </c>
     </row>
@@ -9442,12 +9122,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>L_39</t>
+          <t>L_36</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0,0,0,0,0</t>
+          <t>-1,-1,0,0,0</t>
         </is>
       </c>
     </row>
@@ -9457,12 +9137,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>L_40</t>
+          <t>L_37</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-1,0,0,0,0</t>
+          <t>0,1,0,0,0</t>
         </is>
       </c>
     </row>
@@ -9472,12 +9152,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>L_41</t>
+          <t>L_39</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0,1,0,0,0</t>
+          <t>-1,-1,0,-1,0</t>
         </is>
       </c>
     </row>
@@ -9492,7 +9172,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0,0,0,1,0</t>
+          <t>-1,0,1,0,1</t>
         </is>
       </c>
     </row>
@@ -9507,7 +9187,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0,0,0,0,0</t>
+          <t>0,0,0,0,1</t>
         </is>
       </c>
     </row>
@@ -9517,12 +9197,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>L_47</t>
+          <t>L_49</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0,0,0,0,1</t>
+          <t>-1,-1,0,-1,-1</t>
         </is>
       </c>
     </row>
@@ -9532,12 +9212,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>L_54</t>
+          <t>L_51</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0,-1,0,1,0</t>
+          <t>-1,0,0,0,0</t>
         </is>
       </c>
     </row>
@@ -9547,12 +9227,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>L_57</t>
+          <t>L_55</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0,0,0,1,-1</t>
+          <t>1,0,0,0,0</t>
         </is>
       </c>
     </row>
@@ -9562,12 +9242,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>L_59</t>
+          <t>L_58</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-1,-1,1,-1,0</t>
+          <t>0,0,0,0,1</t>
         </is>
       </c>
     </row>
@@ -9577,12 +9257,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>L_60</t>
+          <t>L_59</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-1,0,0,0,0</t>
+          <t>0,0,1,0,0</t>
         </is>
       </c>
     </row>
@@ -9592,12 +9272,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>L_62</t>
+          <t>L_65</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0,0,0,0,0</t>
+          <t>1,0,-1,0,0</t>
         </is>
       </c>
     </row>
@@ -9607,12 +9287,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>L_63</t>
+          <t>L_67</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0,0,1,0,0</t>
+          <t>0,0,0,0,0</t>
         </is>
       </c>
     </row>
@@ -9622,12 +9302,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>L_64</t>
+          <t>L_68</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0,0,1,1,0</t>
+          <t>0,0,-1,0,0</t>
         </is>
       </c>
     </row>
@@ -9637,12 +9317,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>L_65</t>
+          <t>L_69</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0,-1,0,1,0</t>
+          <t>0,-1,-1,1,0</t>
         </is>
       </c>
     </row>
@@ -9652,12 +9332,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>L_67</t>
+          <t>M_02</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0,0,0,0,0</t>
+          <t>0,0,1,0,0</t>
         </is>
       </c>
     </row>
@@ -9667,12 +9347,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>L_69</t>
+          <t>M_03</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0,-1,-1,0,0</t>
+          <t>0,0,1,-1,1</t>
         </is>
       </c>
     </row>
@@ -9682,12 +9362,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>M_01</t>
+          <t>M_04</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0,-1,0,-1,-1</t>
+          <t>0,-1,1,-1,0</t>
         </is>
       </c>
     </row>
@@ -9697,12 +9377,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>M_03</t>
+          <t>M_05</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0,0,0,0,0</t>
+          <t>0,0,-1,-1,0</t>
         </is>
       </c>
     </row>
@@ -9712,12 +9392,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>M_05</t>
+          <t>M_09</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1,-1,0,0,0</t>
+          <t>1,-1,1,0,0</t>
         </is>
       </c>
     </row>
@@ -9727,12 +9407,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>M_08</t>
+          <t>M_12</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0,-1,-1,0,0</t>
+          <t>0,-1,0,0,-1</t>
         </is>
       </c>
     </row>
@@ -9742,7 +9422,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>M_10</t>
+          <t>M_13</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -9757,12 +9437,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>M_11</t>
+          <t>M_15</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1,-1,1,1,0</t>
+          <t>0,-1,-1,-1,0</t>
         </is>
       </c>
     </row>
@@ -9772,12 +9452,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>M_14</t>
+          <t>M_16</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1,1,-1,0,0</t>
+          <t>0,0,0,0,-1</t>
         </is>
       </c>
     </row>
@@ -9787,12 +9467,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>M_16</t>
+          <t>M_17</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0,0,0,-1,0</t>
+          <t>0,0,0,0,0</t>
         </is>
       </c>
     </row>
@@ -9802,12 +9482,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>M_17</t>
+          <t>M_18</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0,0,0,0,0</t>
+          <t>-1,0,1,1,0</t>
         </is>
       </c>
     </row>
@@ -9817,12 +9497,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>M_18</t>
+          <t>M_19</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0,-1,0,0,0</t>
+          <t>0,-1,-1,0,0</t>
         </is>
       </c>
     </row>
@@ -9832,12 +9512,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>M_19</t>
+          <t>M_20</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1,0,1,1,0</t>
+          <t>0,0,0,0,-1</t>
         </is>
       </c>
     </row>
@@ -9847,12 +9527,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>M_20</t>
+          <t>M_22</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1,1,0,0,0</t>
+          <t>-1,-1,0,0,0</t>
         </is>
       </c>
     </row>
@@ -9862,12 +9542,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>M_21</t>
+          <t>M_23</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0,0,0,0,0</t>
+          <t>0,0,1,0,0</t>
         </is>
       </c>
     </row>
@@ -9877,12 +9557,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>M_22</t>
+          <t>M_24</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0,-1,1,0,1</t>
+          <t>-1,1,0,0,0</t>
         </is>
       </c>
     </row>
@@ -9892,12 +9572,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>M_23</t>
+          <t>M_26</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>-1,0,1,0,0</t>
+          <t>0,0,0,1,1</t>
         </is>
       </c>
     </row>
@@ -9907,12 +9587,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>M_24</t>
+          <t>M_27</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>-1,0,0,0,0</t>
+          <t>0,0,0,-1,0</t>
         </is>
       </c>
     </row>
@@ -9922,12 +9602,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>M_25</t>
+          <t>M_28</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0,-1,-1,0,1</t>
+          <t>0,0,1,0,0</t>
         </is>
       </c>
     </row>
@@ -9937,12 +9617,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>M_27</t>
+          <t>M_30</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0,0,0,0,0</t>
+          <t>0,1,1,1,0</t>
         </is>
       </c>
     </row>
@@ -9952,12 +9632,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>M_28</t>
+          <t>M_32</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0,-1,0,0,0</t>
+          <t>-1,0,-1,1,0</t>
         </is>
       </c>
     </row>
@@ -9967,12 +9647,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>M_29</t>
+          <t>M_33</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0,0,0,0,-1</t>
+          <t>0,0,1,-1,1</t>
         </is>
       </c>
     </row>
@@ -9982,12 +9662,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>M_30</t>
+          <t>M_35</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0,0,0,0,0</t>
+          <t>0,-1,1,0,1</t>
         </is>
       </c>
     </row>
@@ -9997,12 +9677,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>M_31</t>
+          <t>M_36</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0,1,0,0,-1</t>
+          <t>0,0,0,-1,0</t>
         </is>
       </c>
     </row>
@@ -10012,12 +9692,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>M_33</t>
+          <t>M_37</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>-1,1,0,0,0</t>
+          <t>0,-1,1,0,0</t>
         </is>
       </c>
     </row>
@@ -10027,12 +9707,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>M_34</t>
+          <t>M_39</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0,0,1,0,0</t>
+          <t>1,0,0,0,0</t>
         </is>
       </c>
     </row>
@@ -10042,12 +9722,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>M_35</t>
+          <t>M_40</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0,-1,0,0,0</t>
+          <t>0,0,0,0,0</t>
         </is>
       </c>
     </row>
@@ -10057,12 +9737,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>M_36</t>
+          <t>M_41</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>-1,0,0,0,-1</t>
+          <t>0,-1,0,0,1</t>
         </is>
       </c>
     </row>
@@ -10072,12 +9752,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>M_38</t>
+          <t>M_43</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>-1,0,0,1,1</t>
+          <t>0,0,0,-1,0</t>
         </is>
       </c>
     </row>
@@ -10087,12 +9767,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>M_39</t>
+          <t>M_44</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0,0,1,1,0</t>
+          <t>-1,0,0,0,0</t>
         </is>
       </c>
     </row>
@@ -10102,12 +9782,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>M_40</t>
+          <t>M_45</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0,0,1,0,0</t>
+          <t>0,0,-1,1,-1</t>
         </is>
       </c>
     </row>
@@ -10117,12 +9797,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>M_41</t>
+          <t>M_46</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>-1,-1,0,-1,1</t>
+          <t>0,0,0,0,-1</t>
         </is>
       </c>
     </row>
@@ -10132,12 +9812,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>M_42</t>
+          <t>M_47</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>-1,1,-1,0,1</t>
+          <t>0,0,0,1,0</t>
         </is>
       </c>
     </row>
@@ -10147,12 +9827,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>M_45</t>
+          <t>M_48</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>1,0,0,0,1</t>
+          <t>1,0,1,0,-1</t>
         </is>
       </c>
     </row>
@@ -10162,12 +9842,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>M_46</t>
+          <t>M_49</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>0,0,0,-1,-1</t>
+          <t>0,0,0,-1,1</t>
         </is>
       </c>
     </row>
@@ -10177,12 +9857,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>M_47</t>
+          <t>M_50</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>-1,0,1,0,0</t>
+          <t>0,0,-1,1,-1</t>
         </is>
       </c>
     </row>
@@ -10192,12 +9872,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>M_48</t>
+          <t>M_51</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>-1,0,-1,0,-1</t>
+          <t>1,1,1,-1,0</t>
         </is>
       </c>
     </row>
@@ -10207,12 +9887,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>M_50</t>
+          <t>M_54</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>0,-1,0,0,-1</t>
+          <t>0,0,0,0,0</t>
         </is>
       </c>
     </row>
@@ -10222,12 +9902,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>M_51</t>
+          <t>M_55</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>-1,1,0,0,1</t>
+          <t>0,-1,-1,0,0</t>
         </is>
       </c>
     </row>
@@ -10237,12 +9917,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>M_52</t>
+          <t>M_56</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>-1,0,0,0,0</t>
+          <t>1,0,1,0,1</t>
         </is>
       </c>
     </row>
@@ -10252,12 +9932,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>M_53</t>
+          <t>M_58</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>0,0,0,0,1</t>
+          <t>0,1,-1,0,0</t>
         </is>
       </c>
     </row>
@@ -10267,7 +9947,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>M_54</t>
+          <t>M_59</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -10282,12 +9962,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>M_55</t>
+          <t>M_60</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>0,0,0,0,0</t>
+          <t>-1,1,-1,1,-1</t>
         </is>
       </c>
     </row>
@@ -10297,12 +9977,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>M_57</t>
+          <t>M_61</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>-1,0,1,0,-1</t>
+          <t>0,0,0,-1,-1</t>
         </is>
       </c>
     </row>
@@ -10312,12 +9992,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>M_59</t>
+          <t>M_63</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>0,0,1,0,0</t>
+          <t>0,0,1,0,1</t>
         </is>
       </c>
     </row>
@@ -10327,12 +10007,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>M_60</t>
+          <t>M_64</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>1,0,-1,0,0</t>
+          <t>0,1,1,0,-1</t>
         </is>
       </c>
     </row>
@@ -10342,12 +10022,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>M_61</t>
+          <t>M_65</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>0,0,0,0,0</t>
+          <t>0,0,-1,0,-1</t>
         </is>
       </c>
     </row>
@@ -10357,12 +10037,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>M_62</t>
+          <t>M_67</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>0,0,0,0,0</t>
+          <t>0,0,1,0,0</t>
         </is>
       </c>
     </row>
@@ -10372,12 +10052,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>M_63</t>
+          <t>M_68</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>0,0,0,-1,1</t>
+          <t>1,0,-1,0,0</t>
         </is>
       </c>
     </row>
@@ -10387,12 +10067,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>M_64</t>
+          <t>M_69</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>1,1,-1,0,1</t>
+          <t>-1,0,0,0,0</t>
         </is>
       </c>
     </row>
@@ -10402,12 +10082,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>M_65</t>
+          <t>P_01</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>1,0,0,1,0</t>
+          <t>-1,-1,0,-1,0</t>
         </is>
       </c>
     </row>
@@ -10417,12 +10097,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>M_67</t>
+          <t>P_02</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>-1,-1,0,0,0</t>
+          <t>1,0,0,0,0</t>
         </is>
       </c>
     </row>
@@ -10432,12 +10112,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>M_68</t>
+          <t>P_03</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>0,0,0,0,1</t>
+          <t>1,-1,0,-1,-1</t>
         </is>
       </c>
     </row>
@@ -10447,12 +10127,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>M_69</t>
+          <t>P_04</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>0,1,0,0,1</t>
+          <t>0,0,-1,-1,0</t>
         </is>
       </c>
     </row>
@@ -10462,12 +10142,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>P_01</t>
+          <t>P_05</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>-1,0,0,0,0</t>
+          <t>0,0,1,-1,1</t>
         </is>
       </c>
     </row>
@@ -10477,12 +10157,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>P_02</t>
+          <t>P_06</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>0,0,0,1,0</t>
+          <t>1,1,0,0,1</t>
         </is>
       </c>
     </row>
@@ -10492,12 +10172,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>P_03</t>
+          <t>P_07</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>1,0,0,1,1</t>
+          <t>0,0,0,0,-1</t>
         </is>
       </c>
     </row>
@@ -10507,12 +10187,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>P_04</t>
+          <t>P_08</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>0,0,-1,0,0</t>
+          <t>-1,1,0,0,0</t>
         </is>
       </c>
     </row>
@@ -10522,72 +10202,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>P_05</t>
+          <t>P_09</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>1,0,1,0,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>88</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>P_06</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>1,0,1,0,-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>89</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>P_07</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>1,0,0,-1,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>90</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>P_08</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>0,1,0,0,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>91</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>P_09</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>1,-1,0,0,0</t>
+          <t>0,1,-1,1,0</t>
         </is>
       </c>
     </row>
